--- a/processFiles/22.xlsx
+++ b/processFiles/22.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
   <si>
     <t xml:space="preserve">def_id</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">def_desc</t>
   </si>
   <si>
-    <t xml:space="preserve">OS?</t>
+    <t xml:space="preserve">ТИП ОС</t>
   </si>
   <si>
     <t xml:space="preserve">Secret Net Studio 8.1.721</t>
@@ -46,10 +46,16 @@
     <t xml:space="preserve">ООО «Код Безопасности»</t>
   </si>
   <si>
+    <t xml:space="preserve">2019-12-12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Управление доступом и защита от НСД, Антивирусная защита, Защита от вторжений</t>
   </si>
   <si>
     <t xml:space="preserve">Secret Net Studio - C 8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-16</t>
   </si>
   <si>
     <t xml:space="preserve">Управление доступом и защита от НСД, Антивирусная защита</t>
@@ -59,16 +65,19 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2018-09-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">Управление доступом и защита от НСД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">ПАК "Соболь" 3.0.9
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2018-12-07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Обеспечение доверенной загрузки СВТ</t>
   </si>
   <si>
@@ -93,6 +102,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2020-03-28</t>
+  </si>
+  <si>
     <t xml:space="preserve">Защита среды виртуализации</t>
   </si>
   <si>
@@ -100,24 +112,351 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">2019-07-30</t>
+  </si>
+  <si>
     <t xml:space="preserve">SecretNet LSP 1.6
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows 7 (SP1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпорация Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Операционная система</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Альт Линукс СПТ 6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО ЦРИОИТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Альт Линукс СПТ 7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАО «АйСиЭл-КПО ВС»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows NT 4.0 Workstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows Server 2008 R2 (SP1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Серверная операционная система</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows Server Datacenter 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows Server Standard 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Windows Server 2008 Datacenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Windows Server 2008 Enterprise Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Windows Server 2008 Enterprise Edition (SP2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Windows Server 2008 Standard Edition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS Windows Server 2008 Standard Edition (SP2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows  Server Datacenter 2012 R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Windows Server Standard 2012 R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Hat Enterrprise Linex Server 6.х</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "СИС груп"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUSE Linux EnterpriseServer 11 ServicePack 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VipNet Coordinator HW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ОАО «ИнфоТеКС»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сертифицированный межсетевой экран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VipNet Coordinator HW 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VipNet 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-11-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Криптографическая защита информации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккорд-Win64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАО «ОКБ САПР»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЗИ ОТ НСД</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккорд-Win32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккорд-Х</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккорд-АМДЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аккорд-В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-09-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЗИ ОТ НСД для виртуальных сред</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Endpoint Security 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АО «Лаборатория Касперского»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средство антивирусной защиты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Security Center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Security для виртуальных сред 3.0 Защита без агента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средство антивирусной защиты среды виртуализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Endpoint Security 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-11-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">программное изделие «Kaspersky Secure Mail Gateway»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-01-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средство антивирусной защиты, почтовый шлюз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Security 10 Servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Security для виртуальных сред 4.0 Защита без агента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McAfee Advanced Threat Defence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАО «Научно-производственная  компания «Абитон»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronis Backup &amp; Recovery 11 Advanced Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАО «АЛТЭКС-СОФТ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Средство резервного копировния</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acronis Backup &amp; Recovery 11 Advanced Workstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxPatrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗАО «Позитив Текнолоджиз»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система мониторинга событий информационной безопасности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxPatrol SIEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InfoWatch Traffic Monitor версия 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «Лаборатория ИнфоВотч»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-11-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система предотвращения утечек информации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Dallas Lock»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО «Конфидент»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система безопасности виртуальной инфраструктуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware Horizon 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-11-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Система виртуализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware vSphere 5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГУП «СКЦ Росатома»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Программный комплекс для среды виртуализации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware vSphere with Operations Management 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -135,6 +474,20 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="PT Astra Sans"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -148,25 +501,11 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="PT Astra Sans"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -176,7 +515,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,12 +524,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -199,10 +586,31 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -213,14 +621,35 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
+      <left/>
       <right style="medium"/>
       <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,66 +673,339 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Result 1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Обычный 3" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00B0F0"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF66FF"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -312,20 +1014,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.1530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -348,194 +1050,1033 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>43811</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>43967</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="B11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>43350</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="B13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>43441</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="B16" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B17" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="n">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="B18" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="n">
         <v>18</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B19" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="n">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>43770</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>43918</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="n">
         <v>22</v>
       </c>
-      <c r="F8" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="B23" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="n">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>43676</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="B24" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>43452</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="34" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="39" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="39" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="39" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F42" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="39" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="46" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="50" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="50" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" s="50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="54" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="59" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F49" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="59" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E50" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="59" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="59" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="59" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>